--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪铁霖\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\汪铁霖\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638688A-2C5A-4E11-96BE-E5D949DF007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC0F007-8B49-4927-8E3B-0DFE750C9959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2685" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -686,8 +686,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="A20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,8 +826,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1043,6 +1043,9 @@
       <c r="AF4" s="19"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
@@ -1087,37 +1090,37 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{45C67633-9FE3-4D34-89C2-FBC68F5BE596}">
       <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{45DBB344-0069-4B52-8970-66FF9BC49AC4}">
-      <formula1>"A+,A,B,C,D,E"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{E97E0DD6-38B6-491B-B18E-241CFFC61DDC}">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{EE519397-4580-4278-B516-BC35162D72F7}">
-      <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{65350BBF-B348-4481-8534-A3D7996075AD}">
-      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{3B928222-978A-4840-8006-1CC1D6241EC4}">
-      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{BA4E5CFD-3CEB-4D55-B157-76FEAA24A97E}">
-      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576" xr:uid="{1332039F-EB41-422B-A570-80D9AECF8341}">
-      <formula1>"勘察,导入"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{B6140003-F70C-4C42-957A-368847B4049F}">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{A23E10A4-0CCA-4764-8CFE-C56EE0179AE1}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A1:A1048576" xr:uid="{A0B7BD2D-98A2-4ADD-8398-DF6566765052}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入1-99999以内的整数" prompt="单位：米" sqref="Y2:Z1048576" xr:uid="{2A44F5C0-DC05-48B1-AC3B-00442F049CD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{CCC48157-CA33-410F-9BC2-C7609225A8F2}">
+      <formula1>"勘察,导入,无需现场数据"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P4 P7:P1048576 N5" xr:uid="{45DBB344-0069-4B52-8970-66FF9BC49AC4}">
+      <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4 S7:S1048576 Q5" xr:uid="{E97E0DD6-38B6-491B-B18E-241CFFC61DDC}">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U4 U7:U1048576 S5" xr:uid="{EE519397-4580-4278-B516-BC35162D72F7}">
+      <formula1>"可研,初设,施工图,竣工图"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V4 V7:V1048576 T5" xr:uid="{65350BBF-B348-4481-8534-A3D7996075AD}">
+      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4 W7:W1048576 U5" xr:uid="{3B928222-978A-4840-8006-1CC1D6241EC4}">
+      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X4 X7:X1048576 V5" xr:uid="{BA4E5CFD-3CEB-4D55-B157-76FEAA24A97E}">
+      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4 T7:T1048576 R5" xr:uid="{B6140003-F70C-4C42-957A-368847B4049F}">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入1-99999以内的整数" prompt="单位：米" sqref="Y2:Z4 Y7:Z1048576 Z5 W5:X5" xr:uid="{2A44F5C0-DC05-48B1-AC3B-00442F049CD2}">
       <formula1>1</formula1>
       <formula2>99999</formula2>
     </dataValidation>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\产品\配电网工程云设计平台\1.管理端\all in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C01ECB-7B6F-446D-BF95-697894B03631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60146B10-253F-474A-8077-4F9A3443B3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29745" yWindow="-3075" windowWidth="37575" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -239,9 +239,6 @@
     <t>第一批</t>
   </si>
   <si>
-    <t>贫困地区农网建设与改造项目</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>常规农网项目</t>
   </si>
 </sst>
 </file>
@@ -397,14 +397,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +689,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,40 +765,40 @@
         <v>2021</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -827,10 +827,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F5E6EF-E233-40AA-A6C4-014B79453121}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AF6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,10 +877,10 @@
       <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -961,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="17">
         <v>44385</v>
@@ -970,19 +970,19 @@
         <v>44417</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>47</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>48</v>
@@ -1000,7 +1000,7 @@
         <v>52</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>53</v>
@@ -1009,10 +1009,10 @@
         <v>54</v>
       </c>
       <c r="W2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="Y2" s="18">
         <v>0</v>
@@ -1024,48 +1024,311 @@
         <v>44325</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
+      <c r="N3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
+      <c r="N4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="N5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="2"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
+      <c r="N6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+    </row>
+    <row r="23" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+    </row>
+    <row r="25" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+    </row>
+    <row r="30" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+    </row>
+    <row r="31" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+    </row>
+    <row r="32" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+    </row>
+    <row r="33" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+    </row>
+    <row r="34" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N34" s="15"/>
+      <c r="W34" s="15"/>
+    </row>
+    <row r="35" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N35" s="15"/>
+      <c r="W35" s="15"/>
+    </row>
+    <row r="36" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W36" s="15"/>
+    </row>
+    <row r="37" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W37" s="15"/>
+    </row>
+    <row r="38" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W38" s="15"/>
+    </row>
+    <row r="39" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W39" s="15"/>
+    </row>
+    <row r="40" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W40" s="15"/>
+    </row>
+    <row r="41" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W41" s="15"/>
+    </row>
+    <row r="42" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="W42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AC2:AF6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="21">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{5841E86D-2CC1-4389-B335-C140C5E9205F}">
       <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
     </dataValidation>
@@ -1096,38 +1359,34 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{A23E10A4-0CCA-4764-8CFE-C56EE0179AE1}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A1:A1048576" xr:uid="{A0B7BD2D-98A2-4ADD-8398-DF6566765052}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576" xr:uid="{A0B7BD2D-98A2-4ADD-8398-DF6566765052}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{CCC48157-CA33-410F-9BC2-C7609225A8F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576" xr:uid="{CCC48157-CA33-410F-9BC2-C7609225A8F2}">
       <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P4 P7:P1048576 N5" xr:uid="{45DBB344-0069-4B52-8970-66FF9BC49AC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{45DBB344-0069-4B52-8970-66FF9BC49AC4}">
       <formula1>"A+,A,B,C,D,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4 S7:S1048576 Q5" xr:uid="{E97E0DD6-38B6-491B-B18E-241CFFC61DDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 S2:S1048576" xr:uid="{E97E0DD6-38B6-491B-B18E-241CFFC61DDC}">
       <formula1>"新建,改造,扩建,配套输出"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U4 U7:U1048576 S5" xr:uid="{EE519397-4580-4278-B516-BC35162D72F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{EE519397-4580-4278-B516-BC35162D72F7}">
       <formula1>"可研,初设,施工图,竣工图"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V4 V7:V1048576 T5" xr:uid="{65350BBF-B348-4481-8534-A3D7996075AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{65350BBF-B348-4481-8534-A3D7996075AD}">
       <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W4 W7:W1048576 U5" xr:uid="{3B928222-978A-4840-8006-1CC1D6241EC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{3B928222-978A-4840-8006-1CC1D6241EC4}">
       <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X4 X7:X1048576 V5" xr:uid="{BA4E5CFD-3CEB-4D55-B157-76FEAA24A97E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576" xr:uid="{BA4E5CFD-3CEB-4D55-B157-76FEAA24A97E}">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4 T7:T1048576 R5" xr:uid="{B6140003-F70C-4C42-957A-368847B4049F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576" xr:uid="{B6140003-F70C-4C42-957A-368847B4049F}">
       <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入1-99999以内的整数" prompt="单位：米" sqref="W5:X5" xr:uid="{2A44F5C0-DC05-48B1-AC3B-00442F049CD2}">
-      <formula1>1</formula1>
-      <formula2>99999</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Y1:Z1048576" xr:uid="{30F34722-D4DB-426E-AC0E-EA22038BC3FB}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2:Z1048576 Y2:Y1048576" xr:uid="{30F34722-D4DB-426E-AC0E-EA22038BC3FB}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>序号</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目编码</t>
   </si>
   <si>
     <t>项目分类</t>
@@ -218,11 +221,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -231,6 +234,28 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,8 +273,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -264,10 +326,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,74 +360,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,19 +374,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,175 +420,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,15 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -649,6 +643,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,41 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,16 +720,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -890,10 +893,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1264,8 +1267,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1380,6 +1383,9 @@
     <mergeCell ref="K4:N8"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"省级项目,市级项目,县级项目"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
@@ -1388,9 +1394,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>"省级项目,市级项目,县级项目"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1402,35 +1405,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="9" width="13" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="15" width="19.25" customWidth="1"/>
-    <col min="17" max="18" width="17.25" customWidth="1"/>
-    <col min="20" max="20" width="17.25" customWidth="1"/>
-    <col min="23" max="23" width="27.625" customWidth="1"/>
-    <col min="24" max="24" width="7.125" customWidth="1"/>
-    <col min="25" max="26" width="9" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9" style="3"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="10" width="13" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="16" width="19.25" customWidth="1"/>
+    <col min="18" max="19" width="17.25" customWidth="1"/>
+    <col min="21" max="21" width="17.25" customWidth="1"/>
+    <col min="24" max="24" width="27.625" customWidth="1"/>
+    <col min="25" max="25" width="7.125" customWidth="1"/>
+    <col min="26" max="27" width="9" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9" style="3"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" spans="1:30">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1446,19 +1449,19 @@
       <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1479,13 +1482,13 @@
       <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="5" t="s">
@@ -1503,30 +1506,30 @@
       <c r="X1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:34">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1535,20 +1538,20 @@
       <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="9">
         <v>44385</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <v>44417</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>51</v>
@@ -1568,9 +1571,7 @@
       <c r="P2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -1588,396 +1589,399 @@
       <c r="X2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="13">
         <v>0</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="AA2" s="13">
         <v>999</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AB2" s="9">
         <v>44325</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AC2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="15"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
-    </row>
-    <row r="3" spans="14:33">
-      <c r="N3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="AH2" s="15"/>
+    </row>
+    <row r="3" spans="15:34">
+      <c r="O3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="15"/>
+      <c r="Y3" s="1"/>
+      <c r="AD3" s="14"/>
       <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
-    </row>
-    <row r="4" spans="14:33">
-      <c r="N4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="AH3" s="15"/>
+    </row>
+    <row r="4" spans="15:34">
+      <c r="O4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="15"/>
+      <c r="Y4" s="1"/>
+      <c r="AD4" s="14"/>
       <c r="AE4" s="15"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15"/>
-    </row>
-    <row r="5" spans="14:33">
-      <c r="N5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="AH4" s="15"/>
+    </row>
+    <row r="5" spans="15:34">
+      <c r="O5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="3"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="3"/>
+      <c r="AD5" s="14"/>
       <c r="AE5" s="15"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
-    </row>
-    <row r="6" spans="14:33">
-      <c r="N6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="AH5" s="15"/>
+    </row>
+    <row r="6" spans="15:34">
+      <c r="O6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
+      <c r="Y6" s="1"/>
+      <c r="AD6" s="14"/>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
-    </row>
-    <row r="7" spans="14:24">
-      <c r="N7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="AH6" s="15"/>
+    </row>
+    <row r="7" spans="15:25">
+      <c r="O7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="14:24">
-      <c r="N8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="15:25">
+      <c r="O8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="14:24">
-      <c r="N9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="15:25">
+      <c r="O9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="14:24">
-      <c r="N10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="15:25">
+      <c r="O10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="14:24">
-      <c r="N11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="15:25">
+      <c r="O11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="14:24">
-      <c r="N12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="15:25">
+      <c r="O12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="14:24">
-      <c r="N13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="15:25">
+      <c r="O13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="14:24">
-      <c r="N14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="15:25">
+      <c r="O14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="14:24">
-      <c r="N15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="15:25">
+      <c r="O15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="14:24">
-      <c r="N16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="15:25">
+      <c r="O16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="14:24">
-      <c r="N17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="15:25">
+      <c r="O17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="14:24">
-      <c r="N18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="15:25">
+      <c r="O18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="14:24">
-      <c r="N19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="15:25">
+      <c r="O19" s="1"/>
+      <c r="T19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="14:24">
-      <c r="N20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="15:25">
+      <c r="O20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="14:24">
-      <c r="N21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="15:25">
+      <c r="O21" s="1"/>
+      <c r="T21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="14:24">
-      <c r="N22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="15:25">
+      <c r="O22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="14:24">
-      <c r="N23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="U23" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="15:25">
+      <c r="O23" s="1"/>
+      <c r="T23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="14:24">
-      <c r="N24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="15:25">
+      <c r="O24" s="1"/>
+      <c r="T24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="14:24">
-      <c r="N25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="15:25">
+      <c r="O25" s="1"/>
+      <c r="T25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="14:24">
-      <c r="N26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="15:25">
+      <c r="O26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="14:24">
-      <c r="N27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="15:25">
+      <c r="O27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="14:24">
-      <c r="N28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="15:25">
+      <c r="O28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="14:24">
-      <c r="N29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="15:25">
+      <c r="O29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="14:24">
-      <c r="N30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="15:25">
+      <c r="O30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="14:24">
-      <c r="N31" s="1"/>
-      <c r="V31" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="15:25">
+      <c r="O31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="14:24">
-      <c r="N32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="15:25">
+      <c r="O32" s="1"/>
       <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="14:24">
-      <c r="N33" s="1"/>
-      <c r="W33" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="15:25">
+      <c r="O33" s="1"/>
       <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="14:23">
-      <c r="N34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="14:23">
-      <c r="N35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="23:23">
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="23:23">
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="23:23">
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="23:23">
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="23:23">
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="23:23">
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="23:23">
-      <c r="W42" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="15:24">
+      <c r="O34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="15:24">
+      <c r="O35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="24:24">
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="24:24">
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="24:24">
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="24:24">
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="24:24">
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="24:24">
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="24:24">
+      <c r="X42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="AD2:AG6"/>
+    <mergeCell ref="AE2:AH6"/>
   </mergeCells>
   <dataValidations count="22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 S2:S1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 D2:D1048576">
       <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"勘察,导入,免勘察"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
       <formula1>"A+,A,B,C,D,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
       <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"可研,初设,施工图,竣工图"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
       <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
       <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
-      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Y2:Y1048576 Z2:Z1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2:Z1048576 AA2:AA1048576">
       <formula1>0</formula1>
       <formula2>999</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576">
-      <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="T1" listDataValidation="1"/>
+    <ignoredError sqref="U1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -221,11 +221,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -237,23 +237,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +267,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -281,7 +274,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,9 +313,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,18 +351,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,24 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,175 +420,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -643,6 +652,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,41 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,25 +729,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,7 +1267,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1407,8 +1407,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1911,52 +1911,55 @@
     <mergeCell ref="AE2:AH6"/>
   </mergeCells>
   <dataValidations count="22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
-      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
       <formula1>"A+,A,B,C,D,E"</formula1>
     </dataValidation>
@@ -1965,9 +1968,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
-      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
       <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -221,11 +221,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -238,28 +238,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -267,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +260,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,13 +299,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,9 +314,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,6 +332,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,24 +367,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,18 +396,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,175 +420,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,15 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -652,6 +643,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,34 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,22 +725,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,19 +747,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,13 +768,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,101 +783,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,6 +890,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,7 +905,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +917,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1282,118 +1285,118 @@
     <col min="9" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="17" customFormat="1" spans="1:10">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" spans="1:10">
-      <c r="A2" s="16">
+    <row r="2" s="17" customFormat="1" spans="1:10">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="20">
         <v>44377</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="20">
         <v>44377</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="20">
         <v>44561</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="22">
         <v>2021</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="11:14">
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="11:14">
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="11:14">
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="11:14">
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="11:14">
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K4:N8"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"重大,重要,一般"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"省级项目,市级项目,县级项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"重大,重要,一般"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1408,7 +1411,7 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1440,7 +1443,7 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1452,16 +1455,16 @@
       <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -1485,10 +1488,10 @@
       <c r="Q1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="5" t="s">
@@ -1509,13 +1512,13 @@
       <c r="Y1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AC1" s="5" t="s">
@@ -1541,16 +1544,16 @@
       <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>44385</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>44417</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1592,25 +1595,25 @@
       <c r="Y2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="14">
         <v>0</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="14">
         <v>999</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="10">
         <v>44325</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
     </row>
     <row r="3" spans="15:34">
       <c r="O3" s="1"/>
@@ -1620,11 +1623,11 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
     </row>
     <row r="4" spans="15:34">
       <c r="O4" s="1"/>
@@ -1634,11 +1637,11 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="15:34">
       <c r="O5" s="1"/>
@@ -1649,11 +1652,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="3"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="15:34">
       <c r="O6" s="1"/>
@@ -1663,11 +1666,11 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="15:25">
       <c r="O7" s="1"/>
@@ -1911,66 +1914,66 @@
     <mergeCell ref="AE2:AH6"/>
   </mergeCells>
   <dataValidations count="22">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
       <formula1>"新建,改造,扩建,配套输出"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"勘察,导入,免勘察"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"可研,初设,施工图,竣工图"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
-      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"勘察,导入,免勘察"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
-      <formula1>"A+,A,B,C,D,E"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
-      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2:Z1048576 AA2:AA1048576">
       <formula1>0</formula1>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -206,7 +206,7 @@
     <t>常规农网项目</t>
   </si>
   <si>
-    <t>无</t>
+    <t>A类</t>
   </si>
   <si>
     <t>勘察</t>
@@ -223,8 +223,8 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
@@ -237,8 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,15 +260,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,22 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -320,8 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,14 +317,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,8 +344,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,19 +420,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,31 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,115 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,17 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,15 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -693,6 +673,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,17 +713,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,31 +747,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,100 +786,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,14 +1389,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"省级项目,市级项目,县级项目"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"重大,重要,一般"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>"省级项目,市级项目,县级项目"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,8 +1410,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1622,7 +1622,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="Y3" s="4"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
@@ -1913,71 +1913,74 @@
   <mergeCells count="1">
     <mergeCell ref="AE2:AH6"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
       <formula1>"新建,改造,扩建,配套输出"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+      <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2 Y3 Z4:Z1048576 AA2:AA1048576">
+      <formula1>0</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
       <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"可研,初设,施工图,竣工图"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
+      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"勘察,导入,免勘察"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
-      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
-      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
-      <formula1>"A+,A,B,C,D,E"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
-      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2:Z1048576 AA2:AA1048576">
-      <formula1>0</formula1>
-      <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="26100" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
@@ -237,9 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,28 +260,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +273,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -304,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +330,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -354,13 +354,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +373,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -420,13 +420,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,157 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,21 +648,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -691,6 +676,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,7 +735,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,8 +1410,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1913,16 +1913,10 @@
   <mergeCells count="1">
     <mergeCell ref="AE2:AH6"/>
   </mergeCells>
-  <dataValidations count="23">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
+  <dataValidations count="24">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
       <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
@@ -1931,23 +1925,35 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
       <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
@@ -1955,26 +1961,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"可研,初设,施工图,竣工图"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
       <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
-      <formula1>"A+,A,B,C,D,E"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
-      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="9150" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>序号</t>
   </si>
@@ -59,7 +59,7 @@
     <t>重大</t>
   </si>
   <si>
-    <t>市级项目</t>
+    <t>省级项目</t>
   </si>
   <si>
     <t>PS：标红的表头表示必填选项</t>
@@ -164,10 +164,10 @@
     <t>优化网架结构</t>
   </si>
   <si>
-    <t>交流20kV</t>
-  </si>
-  <si>
-    <t>井井通电</t>
+    <t>交流10kV</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
   <si>
     <t>子公司</t>
@@ -185,7 +185,7 @@
     <t>提升设备运行可靠性</t>
   </si>
   <si>
-    <t>请输入资产所属单位</t>
+    <t>请输入</t>
   </si>
   <si>
     <t>A+</t>
@@ -203,7 +203,7 @@
     <t>第一批</t>
   </si>
   <si>
-    <t>常规农网项目</t>
+    <t>贫困地区农网建设与改造项目</t>
   </si>
   <si>
     <t>A类</t>
@@ -1270,8 +1270,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1328,26 +1328,36 @@
         <v>11</v>
       </c>
       <c r="D2" s="20">
-        <v>44377</v>
+        <f ca="1">TODAY()</f>
+        <v>44974</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
-        <v>44377</v>
+        <f ca="1">TODAY()</f>
+        <v>44974</v>
       </c>
       <c r="G2" s="20">
-        <v>44561</v>
+        <f ca="1">EDATE(F2,1)</f>
+        <v>45002</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="22">
-        <v>2021</v>
+        <f ca="1">YEAR(D2)</f>
+        <v>2023</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="3" s="17" customFormat="1" spans="4:9">
+      <c r="D3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="11:14">
       <c r="K4" s="23" t="s">
@@ -1386,17 +1396,17 @@
     <mergeCell ref="K4:N8"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A4:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H4:H1048576">
+      <formula1>"重大,重要,一般"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I4:I1048576">
+      <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J4:J1048576">
       <formula1>"省级项目,市级项目,县级项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>"重大,重要,一般"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,8 +1420,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1545,16 +1555,18 @@
         <v>49</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="10">
-        <v>44385</v>
+        <f ca="1">TODAY()</f>
+        <v>44974</v>
       </c>
       <c r="J2" s="10">
-        <v>44417</v>
+        <f ca="1">EDATE(I2,1)</f>
+        <v>45002</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>51</v>
@@ -1577,6 +1589,12 @@
       <c r="Q2" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1601,9 +1619,7 @@
       <c r="AA2" s="14">
         <v>999</v>
       </c>
-      <c r="AB2" s="10">
-        <v>44325</v>
-      </c>
+      <c r="AB2" s="10"/>
       <c r="AC2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1918,72 +1934,72 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"勘察,导入,免勘察"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
       <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2 Y3 Z4:Z1048576 AA2:AA1048576">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"可研,初设,施工图,竣工图"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
       <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
-      <formula1>"A+,A,B,C,D,E"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
-      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>提升设备运行可靠性</t>
-  </si>
-  <si>
-    <t>请输入</t>
   </si>
   <si>
     <t>A+</t>
@@ -381,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,12 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,16 +738,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,52 +759,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -822,16 +813,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,40 +834,37 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -905,7 +896,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -941,7 +932,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1261,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1329,18 +1320,18 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="G2" s="20">
         <f ca="1">EDATE(F2,1)</f>
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
@@ -1420,8 +1411,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1492,16 +1483,16 @@
       <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="T1" s="5" t="s">
@@ -1522,7 +1513,7 @@
       <c r="Y1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AA1" s="12" t="s">
@@ -1562,11 +1553,11 @@
       </c>
       <c r="I2" s="10">
         <f ca="1">TODAY()</f>
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="J2" s="10">
         <f ca="1">EDATE(I2,1)</f>
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>51</v>
@@ -1583,35 +1574,29 @@
       <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="Z2" s="14">
         <v>0</v>
@@ -1621,11 +1606,11 @@
       </c>
       <c r="AB2" s="10"/>
       <c r="AC2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AE2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
@@ -1931,43 +1916,40 @@
   </mergeCells>
   <dataValidations count="24">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"勘察,导入,免勘察"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
       <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2 Y3 Z4:Z1048576 AA2:AA1048576">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"勘察,导入,免勘察"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
@@ -1988,6 +1970,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
       <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"可研,初设,施工图,竣工图"</formula1>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -179,10 +179,10 @@
     <t>否</t>
   </si>
   <si>
-    <t>设备老化</t>
-  </si>
-  <si>
-    <t>提升设备运行可靠性</t>
+    <t>网架结构不合理</t>
+  </si>
+  <si>
+    <t>提升电网安全稳定水平</t>
   </si>
   <si>
     <t>A+</t>
@@ -1320,18 +1320,18 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44977</v>
+        <v>44984</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44977</v>
+        <v>44984</v>
       </c>
       <c r="G2" s="20">
         <f ca="1">EDATE(F2,1)</f>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
@@ -1390,14 +1390,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A4:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J4:J1048576">
+      <formula1>"省级项目,市级项目,县级项目"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H4:H1048576">
       <formula1>"重大,重要,一般"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I4:I1048576">
       <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J4:J1048576">
-      <formula1>"省级项目,市级项目,县级项目"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1411,8 +1411,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1553,11 +1553,11 @@
       </c>
       <c r="I2" s="10">
         <f ca="1">TODAY()</f>
-        <v>44977</v>
+        <v>44984</v>
       </c>
       <c r="J2" s="10">
         <f ca="1">EDATE(I2,1)</f>
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>51</v>
@@ -1574,12 +1574,9 @@
       <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1915,76 +1912,76 @@
     <mergeCell ref="AE2:AH6"/>
   </mergeCells>
   <dataValidations count="24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+      <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
-      <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2 Y3 Z4:Z1048576 AA2:AA1048576">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"A+,A,B,C,D,E"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+      <formula1>"可研,初设,施工图,竣工图"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
+      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"勘察,导入,免勘察"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
-      <formula1>"A+,A,B,C,D,E"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
-      <formula1>"可研,初设,施工图,竣工图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
-      <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
-      <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
-      <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="11475" windowHeight="3120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
     <sheet name="项目" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>序号</t>
   </si>
@@ -69,6 +82,9 @@
   </si>
   <si>
     <t>项目名称</t>
+  </si>
+  <si>
+    <t>WBS编码</t>
   </si>
   <si>
     <t>项目编码</t>
@@ -216,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -234,34 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -275,14 +263,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +302,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,7 +367,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,49 +427,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,109 +553,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,21 +640,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -667,6 +668,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,148 +739,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -938,52 +954,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1320,25 +1336,25 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44984</v>
+        <v>45303</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44984</v>
+        <v>45303</v>
       </c>
       <c r="G2" s="20">
         <f ca="1">EDATE(F2,1)</f>
-        <v>45012</v>
+        <v>45334</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="22">
         <f ca="1">YEAR(D2)</f>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -1390,14 +1406,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3 A4:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H4:H1048576">
+      <formula1>"重大,重要,一般"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I4:I1048576">
+      <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J4:J1048576">
       <formula1>"省级项目,市级项目,县级项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H4:H1048576">
-      <formula1>"重大,重要,一般"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I4:I1048576">
-      <formula1>"2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,45 +1425,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="16" width="19.25" customWidth="1"/>
-    <col min="18" max="19" width="17.25" customWidth="1"/>
-    <col min="21" max="21" width="17.25" customWidth="1"/>
-    <col min="24" max="24" width="27.625" customWidth="1"/>
-    <col min="25" max="25" width="7.125" customWidth="1"/>
-    <col min="26" max="27" width="9" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9" style="3"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="1" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="19.25" customWidth="1"/>
+    <col min="19" max="20" width="17.25" customWidth="1"/>
+    <col min="22" max="22" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="27.625" customWidth="1"/>
+    <col min="26" max="26" width="7.125" customWidth="1"/>
+    <col min="27" max="28" width="9" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9" style="3"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1456,19 +1472,19 @@
       <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1483,19 +1499,19 @@
       <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="U1" s="5" t="s">
@@ -1513,30 +1529,30 @@
       <c r="Y1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:34">
+      <c r="AE1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1545,22 +1561,22 @@
       <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="10">
         <f ca="1">TODAY()</f>
-        <v>44984</v>
-      </c>
-      <c r="J2" s="10">
-        <f ca="1">EDATE(I2,1)</f>
-        <v>45012</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>45303</v>
+      </c>
+      <c r="K2" s="10">
+        <f ca="1">EDATE(J2,1)</f>
+        <v>45334</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>52</v>
@@ -1574,10 +1590,10 @@
       <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -1595,392 +1611,395 @@
       <c r="Y2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="14">
         <v>0</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AB2" s="14">
         <v>999</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="16" t="s">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="16"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
-    </row>
-    <row r="3" spans="15:34">
-      <c r="O3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="AI2" s="16"/>
+    </row>
+    <row r="3" spans="16:35">
+      <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="4"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="16"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="4"/>
+      <c r="AE3" s="15"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
-    </row>
-    <row r="4" spans="15:34">
-      <c r="O4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="AI3" s="16"/>
+    </row>
+    <row r="4" spans="16:35">
+      <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="16"/>
+      <c r="Z4" s="1"/>
+      <c r="AE4" s="15"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
-    </row>
-    <row r="5" spans="15:34">
-      <c r="O5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="AI4" s="16"/>
+    </row>
+    <row r="5" spans="16:35">
+      <c r="P5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="3"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="16"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="3"/>
+      <c r="AE5" s="15"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
-    </row>
-    <row r="6" spans="15:34">
-      <c r="O6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="AI5" s="16"/>
+    </row>
+    <row r="6" spans="16:35">
+      <c r="P6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="16"/>
+      <c r="Z6" s="1"/>
+      <c r="AE6" s="15"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
-    </row>
-    <row r="7" spans="15:25">
-      <c r="O7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="AI6" s="16"/>
+    </row>
+    <row r="7" spans="16:26">
+      <c r="P7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="15:25">
-      <c r="O8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="16:26">
+      <c r="P8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="15:25">
-      <c r="O9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="16:26">
+      <c r="P9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="15:25">
-      <c r="O10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="16:26">
+      <c r="P10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="15:25">
-      <c r="O11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="16:26">
+      <c r="P11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="15:25">
-      <c r="O12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="16:26">
+      <c r="P12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="15:25">
-      <c r="O13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="16:26">
+      <c r="P13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="15:25">
-      <c r="O14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="16:26">
+      <c r="P14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="15:25">
-      <c r="O15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="16:26">
+      <c r="P15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="15:25">
-      <c r="O16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="16:26">
+      <c r="P16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="15:25">
-      <c r="O17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="16:26">
+      <c r="P17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="15:25">
-      <c r="O18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="16:26">
+      <c r="P18" s="1"/>
+      <c r="U18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="15:25">
-      <c r="O19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="16:26">
+      <c r="P19" s="1"/>
+      <c r="U19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="15:25">
-      <c r="O20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="16:26">
+      <c r="P20" s="1"/>
+      <c r="U20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="15:25">
-      <c r="O21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="16:26">
+      <c r="P21" s="1"/>
+      <c r="U21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="15:25">
-      <c r="O22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="16:26">
+      <c r="P22" s="1"/>
+      <c r="U22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="15:25">
-      <c r="O23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="16:26">
+      <c r="P23" s="1"/>
+      <c r="U23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="15:25">
-      <c r="O24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="16:26">
+      <c r="P24" s="1"/>
+      <c r="U24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="15:25">
-      <c r="O25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="16:26">
+      <c r="P25" s="1"/>
+      <c r="U25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="15:25">
-      <c r="O26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="16:26">
+      <c r="P26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="15:25">
-      <c r="O27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="16:26">
+      <c r="P27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="15:25">
-      <c r="O28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="16:26">
+      <c r="P28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="15:25">
-      <c r="O29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="16:26">
+      <c r="P29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="15:25">
-      <c r="O30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="16:26">
+      <c r="P30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="15:25">
-      <c r="O31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="16:26">
+      <c r="P31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="15:25">
-      <c r="O32" s="1"/>
-      <c r="X32" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="16:26">
+      <c r="P32" s="1"/>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="15:25">
-      <c r="O33" s="1"/>
-      <c r="X33" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="16:26">
+      <c r="P33" s="1"/>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="15:24">
-      <c r="O34" s="1"/>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="15:24">
-      <c r="O35" s="1"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="24:24">
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="24:24">
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="24:24">
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="24:24">
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="24:24">
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="24:24">
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="24:24">
-      <c r="X42" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="16:25">
+      <c r="P34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="16:25">
+      <c r="P35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="25:25">
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="25:25">
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="25:25">
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="25:25">
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="25:25">
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="25:25">
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="25:25">
+      <c r="Y42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="AE2:AH6"/>
+    <mergeCell ref="AF2:AI6"/>
   </mergeCells>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"10kV线路,配变台区,低压线路"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2">
       <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="AA2 Z3 AA4:AA1048576 AB2:AB1048576">
+      <formula1>0</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5 U2:U1048576">
+      <formula1>"新建,改造,扩建,配套输出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A2:A1048576">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"10kV线路,配变台区,低压线路"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
+      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入0-999以内的整数" prompt="单位：米" sqref="Z2 Y3 Z4:Z1048576 AA2:AA1048576">
-      <formula1>0</formula1>
-      <formula2>999</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 T2:T1048576">
-      <formula1>"新建,改造,扩建,配套输出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
-      <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
-      <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
       <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
       <formula1>"A+,A,B,C,D,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
       <formula1>"可研,初设,施工图,竣工图"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
       <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
       <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z1048576">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1048576">
       <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1988,7 +2007,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="U1" listDataValidation="1"/>
+    <ignoredError sqref="V1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11475" windowHeight="3120" activeTab="1"/>
+    <workbookView windowWidth="20085" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -1336,18 +1336,18 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45317</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45317</v>
       </c>
       <c r="G2" s="20">
         <f ca="1">EDATE(F2,1)</f>
-        <v>45334</v>
+        <v>45348</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
@@ -1427,8 +1427,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1572,11 +1572,11 @@
       </c>
       <c r="J2" s="10">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45317</v>
       </c>
       <c r="K2" s="10">
         <f ca="1">EDATE(J2,1)</f>
-        <v>45334</v>
+        <v>45348</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>52</v>
@@ -1930,11 +1930,14 @@
   <mergeCells count="1">
     <mergeCell ref="AF2:AI6"/>
   </mergeCells>
-  <dataValidations count="24">
+  <dataValidations count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2">
       <formula1>"A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
@@ -1984,7 +1987,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
       <formula1>"A+,A,B,C,D,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576">
       <formula1>"农网改造升级项目,城镇配网工程,无电地区电力建设,大修,技改,业扩配套,电网基建"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20085" windowHeight="12315" activeTab="1"/>
+    <workbookView windowWidth="22680" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
     <sheet name="项目" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目!$AD:$AD</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1336,18 +1339,18 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">TODAY()</f>
-        <v>45317</v>
+        <v>45349</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">TODAY()</f>
-        <v>45317</v>
+        <v>45349</v>
       </c>
       <c r="G2" s="20">
         <f ca="1">EDATE(F2,1)</f>
-        <v>45348</v>
+        <v>45378</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
@@ -1427,8 +1430,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1572,11 +1575,11 @@
       </c>
       <c r="J2" s="10">
         <f ca="1">TODAY()</f>
-        <v>45317</v>
+        <v>45349</v>
       </c>
       <c r="K2" s="10">
         <f ca="1">EDATE(J2,1)</f>
-        <v>45348</v>
+        <v>45378</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>52</v>
@@ -1930,7 +1933,7 @@
   <mergeCells count="1">
     <mergeCell ref="AF2:AI6"/>
   </mergeCells>
-  <dataValidations count="25">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
@@ -1945,6 +1948,9 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
+      <formula1>"勘察"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5 U2:U1048576">
       <formula1>"新建,改造,扩建,配套输出"</formula1>
     </dataValidation>
@@ -2002,7 +2008,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z1048576">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD1048576">
       <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/template/proTemp.xlsx
+++ b/public/template/proTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22680" windowHeight="12930" activeTab="1"/>
+    <workbookView windowWidth="23355" windowHeight="10605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -1339,18 +1339,18 @@
       </c>
       <c r="D2" s="20">
         <f ca="1">TODAY()</f>
-        <v>45349</v>
+        <v>45401</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="20">
         <f ca="1">TODAY()</f>
-        <v>45349</v>
+        <v>45401</v>
       </c>
       <c r="G2" s="20">
         <f ca="1">EDATE(F2,1)</f>
-        <v>45378</v>
+        <v>45431</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>13</v>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="J2" s="10">
         <f ca="1">TODAY()</f>
-        <v>45349</v>
+        <v>45401</v>
       </c>
       <c r="K2" s="10">
         <f ca="1">EDATE(J2,1)</f>
-        <v>45378</v>
+        <v>45431</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>52</v>
@@ -1933,7 +1933,7 @@
   <mergeCells count="1">
     <mergeCell ref="AF2:AI6"/>
   </mergeCells>
-  <dataValidations count="26">
+  <dataValidations count="25">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区两州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
@@ -1948,8 +1948,8 @@
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2">
-      <formula1>"勘察"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 AD3:AD1048576">
+      <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5 U2:U1048576">
       <formula1>"新建,改造,扩建,配套输出"</formula1>
@@ -2007,9 +2007,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z1048576">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD1048576">
-      <formula1>"勘察,导入,免勘察"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
